--- a/data/scheduling_DNN/predict/0.1/result27.xlsx
+++ b/data/scheduling_DNN/predict/0.1/result27.xlsx
@@ -570,10 +570,10 @@
         <v>1.336845874786377</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4360241889953613</v>
+        <v>0.5073590278625488</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8114796876907349</v>
+        <v>0.6880484223365784</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9662530422210693</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5017416477203369</v>
+        <v>0.5326714515686035</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2157708406448364</v>
+        <v>0.1879929900169373</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8801548480987549</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6168749332427979</v>
+        <v>0.535455584526062</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0693163126707077</v>
+        <v>0.1188175827264786</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.93402099609375</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5758230686187744</v>
+        <v>0.9306278228759766</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1283057481050491</v>
+        <v>1.151362448581494e-05</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.866873025894165</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6210076808929443</v>
+        <v>0.8954386711120605</v>
       </c>
       <c r="W6" t="n">
-        <v>0.06044976785778999</v>
+        <v>0.000815996085293591</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8660178184509277</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5535620450973511</v>
+        <v>0.8829015493392944</v>
       </c>
       <c r="W7" t="n">
-        <v>0.09762860834598541</v>
+        <v>0.0002850603777915239</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8763430118560791</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4707594513893127</v>
+        <v>0.9179239869117737</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1644980311393738</v>
+        <v>0.001728977542370558</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.9141051769256592</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6187922954559326</v>
+        <v>0.5298680067062378</v>
       </c>
       <c r="W9" t="n">
-        <v>0.08720970153808594</v>
+        <v>0.147638201713562</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8647379875183105</v>
       </c>
       <c r="V10" t="n">
-        <v>0.505409836769104</v>
+        <v>0.8972691893577576</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1291167140007019</v>
+        <v>0.001058279071003199</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8567459583282471</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5573711395263672</v>
+        <v>0.9651548266410828</v>
       </c>
       <c r="W11" t="n">
-        <v>0.089625284075737</v>
+        <v>0.01175248250365257</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8776390552520752</v>
       </c>
       <c r="V12" t="n">
-        <v>0.5035362839698792</v>
+        <v>0.5814127922058105</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1399528831243515</v>
+        <v>0.08774999529123306</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.9471619129180908</v>
       </c>
       <c r="V13" t="n">
-        <v>0.7464801073074341</v>
+        <v>0.5201523900032043</v>
       </c>
       <c r="W13" t="n">
-        <v>0.04027318581938744</v>
+        <v>0.1823371350765228</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.9729969501495361</v>
       </c>
       <c r="V14" t="n">
-        <v>0.5013586282730103</v>
+        <v>0.9309791326522827</v>
       </c>
       <c r="W14" t="n">
-        <v>0.222442701458931</v>
+        <v>0.001765497028827667</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.91621994972229</v>
       </c>
       <c r="V15" t="n">
-        <v>0.7384928464889526</v>
+        <v>0.8938195705413818</v>
       </c>
       <c r="W15" t="n">
-        <v>0.03158692270517349</v>
+        <v>0.000501776987221092</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8982129096984863</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4986482858657837</v>
+        <v>0.9254457354545593</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1596518903970718</v>
+        <v>0.0007416267762891948</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.88407301902771</v>
       </c>
       <c r="V17" t="n">
-        <v>0.6457363367080688</v>
+        <v>0.4710245132446289</v>
       </c>
       <c r="W17" t="n">
-        <v>0.05680437386035919</v>
+        <v>0.1706090718507767</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8764221668243408</v>
       </c>
       <c r="V18" t="n">
-        <v>0.6245588064193726</v>
+        <v>0.4883976578712463</v>
       </c>
       <c r="W18" t="n">
-        <v>0.0634351521730423</v>
+        <v>0.1505630165338516</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.946699857711792</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5036900043487549</v>
+        <v>0.469590961933136</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1962577253580093</v>
+        <v>0.2276328951120377</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.9155209064483643</v>
       </c>
       <c r="V20" t="n">
-        <v>0.6196457147598267</v>
+        <v>0.5300310254096985</v>
       </c>
       <c r="W20" t="n">
-        <v>0.08754213154315948</v>
+        <v>0.1486024409532547</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8904790878295898</v>
       </c>
       <c r="V21" t="n">
-        <v>0.4741716682910919</v>
+        <v>0.4946089386940002</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1733118742704391</v>
+        <v>0.1567131727933884</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5245001316070557</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5499672889709473</v>
+        <v>0.5097064971923828</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0006485761259682477</v>
+        <v>0.0002188516227761284</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5269629955291748</v>
       </c>
       <c r="V23" t="n">
-        <v>0.6167548894882202</v>
+        <v>0.9112060070037842</v>
       </c>
       <c r="W23" t="n">
-        <v>0.008062584325671196</v>
+        <v>0.1476426869630814</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.520482063293457</v>
       </c>
       <c r="V24" t="n">
-        <v>0.6252998113632202</v>
+        <v>0.4720770120620728</v>
       </c>
       <c r="W24" t="n">
-        <v>0.01098676025867462</v>
+        <v>0.002343049040064216</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5938429832458496</v>
       </c>
       <c r="V25" t="n">
-        <v>0.6259042024612427</v>
+        <v>0.5151616930961609</v>
       </c>
       <c r="W25" t="n">
-        <v>0.001027921796776354</v>
+        <v>0.006190745625644922</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5185608863830566</v>
       </c>
       <c r="V26" t="n">
-        <v>0.5720549821853638</v>
+        <v>0.8754496574401855</v>
       </c>
       <c r="W26" t="n">
-        <v>0.002861618297174573</v>
+        <v>0.1273695975542068</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5147209167480469</v>
       </c>
       <c r="V27" t="n">
-        <v>0.630542516708374</v>
+        <v>0.9266218543052673</v>
       </c>
       <c r="W27" t="n">
-        <v>0.01341464277356863</v>
+        <v>0.1696623861789703</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5164079666137695</v>
       </c>
       <c r="V28" t="n">
-        <v>0.5040199756622314</v>
+        <v>0.8952563405036926</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0001534623152110726</v>
+        <v>0.143526092171669</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.533146858215332</v>
       </c>
       <c r="V29" t="n">
-        <v>0.4487207531929016</v>
+        <v>0.5353747606277466</v>
       </c>
       <c r="W29" t="n">
-        <v>0.00712776742875576</v>
+        <v>4.96354914503172e-06</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5294210910797119</v>
       </c>
       <c r="V30" t="n">
-        <v>0.43533855676651</v>
+        <v>0.5301428437232971</v>
       </c>
       <c r="W30" t="n">
-        <v>0.008851523511111736</v>
+        <v>5.209269033912278e-07</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5398600101470947</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5489695072174072</v>
+        <v>0.4838441014289856</v>
       </c>
       <c r="W31" t="n">
-        <v>8.298293687403202e-05</v>
+        <v>0.003137781983241439</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5248239040374756</v>
       </c>
       <c r="V32" t="n">
-        <v>0.6437071561813354</v>
+        <v>0.5254586338996887</v>
       </c>
       <c r="W32" t="n">
-        <v>0.01413322798907757</v>
+        <v>4.028819944323914e-07</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5155198574066162</v>
       </c>
       <c r="V33" t="n">
-        <v>0.8167376518249512</v>
+        <v>0.4995165467262268</v>
       </c>
       <c r="W33" t="n">
-        <v>0.0907321572303772</v>
+        <v>0.0002561059664003551</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5288600921630859</v>
       </c>
       <c r="V34" t="n">
-        <v>0.3778295516967773</v>
+        <v>0.5300981402397156</v>
       </c>
       <c r="W34" t="n">
-        <v>0.02281022444367409</v>
+        <v>1.532763008071925e-06</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5154280662536621</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4360217452049255</v>
+        <v>0.961545467376709</v>
       </c>
       <c r="W35" t="n">
-        <v>0.006305363960564137</v>
+        <v>0.199020728468895</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5712330341339111</v>
       </c>
       <c r="V36" t="n">
-        <v>0.6280151605606079</v>
+        <v>0.5152046084403992</v>
       </c>
       <c r="W36" t="n">
-        <v>0.003224209882318974</v>
+        <v>0.00313918455503881</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.51521897315979</v>
       </c>
       <c r="V37" t="n">
-        <v>0.6243352890014648</v>
+        <v>0.897466242313385</v>
       </c>
       <c r="W37" t="n">
-        <v>0.01190637052059174</v>
+        <v>0.1461129784584045</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.511552095413208</v>
       </c>
       <c r="V38" t="n">
-        <v>0.8187797069549561</v>
+        <v>0.5815503001213074</v>
       </c>
       <c r="W38" t="n">
-        <v>0.09438880532979965</v>
+        <v>0.004899748601019382</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.514030933380127</v>
       </c>
       <c r="V39" t="n">
-        <v>0.5677254199981689</v>
+        <v>0.8962554931640625</v>
       </c>
       <c r="W39" t="n">
-        <v>0.002883097855374217</v>
+        <v>0.1460956186056137</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5096900463104248</v>
       </c>
       <c r="V40" t="n">
-        <v>0.56879723072052</v>
+        <v>0.5826999545097351</v>
       </c>
       <c r="W40" t="n">
-        <v>0.003493659198284149</v>
+        <v>0.005330446641892195</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5171051025390625</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4765401184558868</v>
+        <v>0.8889895081520081</v>
       </c>
       <c r="W41" t="n">
-        <v>0.001645517884753644</v>
+        <v>0.1382980048656464</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.416593074798584</v>
       </c>
       <c r="V42" t="n">
-        <v>0.504918098449707</v>
+        <v>0.5025317072868347</v>
       </c>
       <c r="W42" t="n">
-        <v>0.007801309693604708</v>
+        <v>0.007385448552668095</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4091649055480957</v>
       </c>
       <c r="V43" t="n">
-        <v>0.5687597990036011</v>
+        <v>0.4944959878921509</v>
       </c>
       <c r="W43" t="n">
-        <v>0.02547053061425686</v>
+        <v>0.007281393744051456</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3865730762481689</v>
       </c>
       <c r="V44" t="n">
-        <v>0.3785422742366791</v>
+        <v>0.5326033234596252</v>
       </c>
       <c r="W44" t="n">
-        <v>6.449378270190209e-05</v>
+        <v>0.02132483385503292</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.4037470817565918</v>
       </c>
       <c r="V45" t="n">
-        <v>0.4582692682743073</v>
+        <v>0.5020726919174194</v>
       </c>
       <c r="W45" t="n">
-        <v>0.002972668735310435</v>
+        <v>0.009667925536632538</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.4149599075317383</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4658282697200775</v>
+        <v>0.5301481485366821</v>
       </c>
       <c r="W46" t="n">
-        <v>0.002587590366601944</v>
+        <v>0.01326833106577396</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.410552978515625</v>
       </c>
       <c r="V47" t="n">
-        <v>0.6732223033905029</v>
+        <v>0.897736132144928</v>
       </c>
       <c r="W47" t="n">
-        <v>0.06899517774581909</v>
+        <v>0.237347424030304</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.4101219177246094</v>
       </c>
       <c r="V48" t="n">
-        <v>0.6175475120544434</v>
+        <v>0.4871988296508789</v>
       </c>
       <c r="W48" t="n">
-        <v>0.04302537813782692</v>
+        <v>0.005940850358456373</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3939008712768555</v>
       </c>
       <c r="V49" t="n">
-        <v>0.4739275276660919</v>
+        <v>0.4695627093315125</v>
       </c>
       <c r="W49" t="n">
-        <v>0.006404265761375427</v>
+        <v>0.005724713671952486</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3892829418182373</v>
       </c>
       <c r="V50" t="n">
-        <v>0.4713866114616394</v>
+        <v>0.5300778150558472</v>
       </c>
       <c r="W50" t="n">
-        <v>0.006741012446582317</v>
+        <v>0.01982319541275501</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3935251235961914</v>
       </c>
       <c r="V51" t="n">
-        <v>0.4360131323337555</v>
+        <v>0.8690884113311768</v>
       </c>
       <c r="W51" t="n">
-        <v>0.00180523085873574</v>
+        <v>0.2261604368686676</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.385037899017334</v>
       </c>
       <c r="V52" t="n">
-        <v>0.4586285054683685</v>
+        <v>0.9079402685165405</v>
       </c>
       <c r="W52" t="n">
-        <v>0.005415577441453934</v>
+        <v>0.27342689037323</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3866498470306396</v>
       </c>
       <c r="V53" t="n">
-        <v>0.5496547222137451</v>
+        <v>0.9156253933906555</v>
       </c>
       <c r="W53" t="n">
-        <v>0.02657059021294117</v>
+        <v>0.279815137386322</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.4439878463745117</v>
       </c>
       <c r="V54" t="n">
-        <v>0.6257683038711548</v>
+        <v>0.4798120260238647</v>
       </c>
       <c r="W54" t="n">
-        <v>0.03304413333535194</v>
+        <v>0.001283371821045876</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3893239498138428</v>
       </c>
       <c r="V55" t="n">
-        <v>0.7251691818237305</v>
+        <v>0.9089205861091614</v>
       </c>
       <c r="W55" t="n">
-        <v>0.1127920225262642</v>
+        <v>0.2699806690216064</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3930799961090088</v>
       </c>
       <c r="V56" t="n">
-        <v>0.4759599268436432</v>
+        <v>0.9187347292900085</v>
       </c>
       <c r="W56" t="n">
-        <v>0.006869082804769278</v>
+        <v>0.2763128876686096</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3875339031219482</v>
       </c>
       <c r="V57" t="n">
-        <v>0.435836523771286</v>
+        <v>0.4948539733886719</v>
       </c>
       <c r="W57" t="n">
-        <v>0.002333143260329962</v>
+        <v>0.0115175973623991</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.386138916015625</v>
       </c>
       <c r="V58" t="n">
-        <v>0.4864535331726074</v>
+        <v>0.9206250309944153</v>
       </c>
       <c r="W58" t="n">
-        <v>0.01006302237510681</v>
+        <v>0.2856754064559937</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3882899284362793</v>
       </c>
       <c r="V59" t="n">
-        <v>0.5682737827301025</v>
+        <v>0.4721280932426453</v>
       </c>
       <c r="W59" t="n">
-        <v>0.03239418938755989</v>
+        <v>0.007028837688267231</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.4076018333435059</v>
       </c>
       <c r="V60" t="n">
-        <v>0.6213141679763794</v>
+        <v>0.4791767001152039</v>
       </c>
       <c r="W60" t="n">
-        <v>0.04567296057939529</v>
+        <v>0.005122961476445198</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3860490322113037</v>
       </c>
       <c r="V61" t="n">
-        <v>0.475897878408432</v>
+        <v>0.4703584909439087</v>
       </c>
       <c r="W61" t="n">
-        <v>0.008072814904153347</v>
+        <v>0.007108084857463837</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8775758743286133</v>
       </c>
       <c r="V62" t="n">
-        <v>0.6568361520767212</v>
+        <v>0.8868318200111389</v>
       </c>
       <c r="W62" t="n">
-        <v>0.04872602596879005</v>
+        <v>8.567253098590299e-05</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8603148460388184</v>
       </c>
       <c r="V63" t="n">
-        <v>0.6257109642028809</v>
+        <v>0.4965962767601013</v>
       </c>
       <c r="W63" t="n">
-        <v>0.05503898113965988</v>
+        <v>0.1322911977767944</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.886483907699585</v>
       </c>
       <c r="V64" t="n">
-        <v>0.5520607233047485</v>
+        <v>0.9201627373695374</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1118388697504997</v>
+        <v>0.001134263584390283</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.9121291637420654</v>
       </c>
       <c r="V65" t="n">
-        <v>0.8167510032653809</v>
+        <v>0.9621779322624207</v>
       </c>
       <c r="W65" t="n">
-        <v>0.009096993133425713</v>
+        <v>0.002504879143089056</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>1.017941951751709</v>
       </c>
       <c r="V66" t="n">
-        <v>0.4873129427433014</v>
+        <v>0.4997676014900208</v>
       </c>
       <c r="W66" t="n">
-        <v>0.2815671861171722</v>
+        <v>0.2685046494007111</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.9620909690856934</v>
       </c>
       <c r="V67" t="n">
-        <v>0.4422197341918945</v>
+        <v>0.9646399617195129</v>
       </c>
       <c r="W67" t="n">
-        <v>0.2702661156654358</v>
+        <v>6.497363301605219e-06</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9142699241638184</v>
       </c>
       <c r="V68" t="n">
-        <v>0.6487832069396973</v>
+        <v>0.4792725443840027</v>
       </c>
       <c r="W68" t="n">
-        <v>0.07048320025205612</v>
+        <v>0.1892227232456207</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8610610961914062</v>
       </c>
       <c r="V69" t="n">
-        <v>0.812067985534668</v>
+        <v>0.5024229884147644</v>
       </c>
       <c r="W69" t="n">
-        <v>0.00240032491274178</v>
+        <v>0.1286212950944901</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8601651191711426</v>
       </c>
       <c r="V70" t="n">
-        <v>0.5087136030197144</v>
+        <v>0.471003532409668</v>
       </c>
       <c r="W70" t="n">
-        <v>0.123518168926239</v>
+        <v>0.151446744799614</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8625369071960449</v>
       </c>
       <c r="V71" t="n">
-        <v>0.6243749856948853</v>
+        <v>0.956002414226532</v>
       </c>
       <c r="W71" t="n">
-        <v>0.05672110244631767</v>
+        <v>0.008735801093280315</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.9096221923828125</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4576262831687927</v>
+        <v>0.8844515681266785</v>
       </c>
       <c r="W72" t="n">
-        <v>0.2043002992868423</v>
+        <v>0.0006335603538900614</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8609669208526611</v>
       </c>
       <c r="V73" t="n">
-        <v>0.5017784237861633</v>
+        <v>0.5059770941734314</v>
       </c>
       <c r="W73" t="n">
-        <v>0.1290163695812225</v>
+        <v>0.1260177791118622</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8632349967956543</v>
       </c>
       <c r="V74" t="n">
-        <v>0.5529001951217651</v>
+        <v>0.4881641864776611</v>
       </c>
       <c r="W74" t="n">
-        <v>0.09630768746137619</v>
+        <v>0.1406781077384949</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8557939529418945</v>
       </c>
       <c r="V75" t="n">
-        <v>0.5039443373680115</v>
+        <v>0.5020716786384583</v>
       </c>
       <c r="W75" t="n">
-        <v>0.1237981542944908</v>
+        <v>0.1251194477081299</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.9050168991088867</v>
       </c>
       <c r="V76" t="n">
-        <v>0.6255502700805664</v>
+        <v>0.4883856773376465</v>
       </c>
       <c r="W76" t="n">
-        <v>0.07810159772634506</v>
+        <v>0.1735815703868866</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.948369026184082</v>
       </c>
       <c r="V77" t="n">
-        <v>0.4585598111152649</v>
+        <v>0.8982731103897095</v>
       </c>
       <c r="W77" t="n">
-        <v>0.2399130612611771</v>
+        <v>0.002509600715711713</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8685581684112549</v>
       </c>
       <c r="V78" t="n">
-        <v>0.56818687915802</v>
+        <v>0.5071465969085693</v>
       </c>
       <c r="W78" t="n">
-        <v>0.09022291004657745</v>
+        <v>0.1306183189153671</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8597679138183594</v>
       </c>
       <c r="V79" t="n">
-        <v>0.6731165647506714</v>
+        <v>0.9304161667823792</v>
       </c>
       <c r="W79" t="n">
-        <v>0.0348387248814106</v>
+        <v>0.004991175606846809</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.9119391441345215</v>
       </c>
       <c r="V80" t="n">
-        <v>0.5689204931259155</v>
+        <v>0.582541286945343</v>
       </c>
       <c r="W80" t="n">
-        <v>0.1176617965102196</v>
+        <v>0.1085029467940331</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.875295877456665</v>
       </c>
       <c r="V81" t="n">
-        <v>0.5042864084243774</v>
+        <v>0.4850791096687317</v>
       </c>
       <c r="W81" t="n">
-        <v>0.1376480311155319</v>
+        <v>0.1522691249847412</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5519709587097168</v>
       </c>
       <c r="V82" t="n">
-        <v>0.624285101890564</v>
+        <v>0.5834595561027527</v>
       </c>
       <c r="W82" t="n">
-        <v>0.005229335278272629</v>
+        <v>0.0009915317641571164</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5459668636322021</v>
       </c>
       <c r="V83" t="n">
-        <v>0.3901001513004303</v>
+        <v>0.8820803165435791</v>
       </c>
       <c r="W83" t="n">
-        <v>0.02429443225264549</v>
+        <v>0.1129722520709038</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5143020153045654</v>
       </c>
       <c r="V84" t="n">
-        <v>0.4575594365596771</v>
+        <v>0.5004076361656189</v>
       </c>
       <c r="W84" t="n">
-        <v>0.003219720209017396</v>
+        <v>0.0001930537691805512</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5661840438842773</v>
       </c>
       <c r="V85" t="n">
-        <v>0.8181720972061157</v>
+        <v>0.8773766756057739</v>
       </c>
       <c r="W85" t="n">
-        <v>0.06349797546863556</v>
+        <v>0.09684085100889206</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5154368877410889</v>
       </c>
       <c r="V86" t="n">
-        <v>0.5010216236114502</v>
+        <v>0.4893712401390076</v>
       </c>
       <c r="W86" t="n">
-        <v>0.0002077998360618949</v>
+        <v>0.0006794179789721966</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5159511566162109</v>
       </c>
       <c r="V87" t="n">
-        <v>0.8121641874313354</v>
+        <v>0.8969470262527466</v>
       </c>
       <c r="W87" t="n">
-        <v>0.0877421572804451</v>
+        <v>0.1451578587293625</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5139241218566895</v>
       </c>
       <c r="V88" t="n">
-        <v>0.5517981052398682</v>
+        <v>0.9146302938461304</v>
       </c>
       <c r="W88" t="n">
-        <v>0.001434438629075885</v>
+        <v>0.1605654358863831</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5185980796813965</v>
       </c>
       <c r="V89" t="n">
-        <v>0.4955423474311829</v>
+        <v>0.5142901539802551</v>
       </c>
       <c r="W89" t="n">
-        <v>0.0005315667949616909</v>
+        <v>1.855822301877197e-05</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5111751556396484</v>
       </c>
       <c r="V90" t="n">
-        <v>0.6047799587249756</v>
+        <v>0.5021350383758545</v>
       </c>
       <c r="W90" t="n">
-        <v>0.008761859498918056</v>
+        <v>8.172372326953337e-05</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5272061824798584</v>
       </c>
       <c r="V91" t="n">
-        <v>0.4361319839954376</v>
+        <v>0.5524983406066895</v>
       </c>
       <c r="W91" t="n">
-        <v>0.008294509723782539</v>
+        <v>0.000639693287666887</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5197830200195312</v>
       </c>
       <c r="V92" t="n">
-        <v>0.3906354904174805</v>
+        <v>0.5301270484924316</v>
       </c>
       <c r="W92" t="n">
-        <v>0.01667908392846584</v>
+        <v>0.0001069989230018109</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5253548622131348</v>
       </c>
       <c r="V93" t="n">
-        <v>0.7324898242950439</v>
+        <v>0.5826860070228577</v>
       </c>
       <c r="W93" t="n">
-        <v>0.04290489107370377</v>
+        <v>0.003286860184744</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5138218402862549</v>
       </c>
       <c r="V94" t="n">
-        <v>0.6608701944351196</v>
+        <v>0.5301541686058044</v>
       </c>
       <c r="W94" t="n">
-        <v>0.02162321843206882</v>
+        <v>0.0002667449589353055</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5149509906768799</v>
       </c>
       <c r="V95" t="n">
-        <v>0.6435973644256592</v>
+        <v>0.5016881823539734</v>
       </c>
       <c r="W95" t="n">
-        <v>0.01654988899827003</v>
+        <v>0.0001759020815370604</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5679571628570557</v>
       </c>
       <c r="V96" t="n">
-        <v>0.4360276758670807</v>
+        <v>0.8833350539207458</v>
       </c>
       <c r="W96" t="n">
-        <v>0.01740538887679577</v>
+        <v>0.09946321696043015</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5176000595092773</v>
       </c>
       <c r="V97" t="n">
-        <v>0.471180647611618</v>
+        <v>0.9311977624893188</v>
       </c>
       <c r="W97" t="n">
-        <v>0.002154761692509055</v>
+        <v>0.1710630655288696</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5191850662231445</v>
       </c>
       <c r="V98" t="n">
-        <v>0.4581899344921112</v>
+        <v>0.5776235461235046</v>
       </c>
       <c r="W98" t="n">
-        <v>0.003720406210049987</v>
+        <v>0.00341505603864789</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5165419578552246</v>
       </c>
       <c r="V99" t="n">
-        <v>0.6434009075164795</v>
+        <v>0.9017713665962219</v>
       </c>
       <c r="W99" t="n">
-        <v>0.01609319262206554</v>
+        <v>0.1484016925096512</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.516232967376709</v>
       </c>
       <c r="V100" t="n">
-        <v>0.4664293229579926</v>
+        <v>0.5327499508857727</v>
       </c>
       <c r="W100" t="n">
-        <v>0.002480403054505587</v>
+        <v>0.0002728107501752675</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5128209590911865</v>
       </c>
       <c r="V101" t="n">
-        <v>0.4707935154438019</v>
+        <v>0.5012979507446289</v>
       </c>
       <c r="W101" t="n">
-        <v>0.001766305998899043</v>
+        <v>0.0001327797217527404</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.3957960605621338</v>
       </c>
       <c r="V102" t="n">
-        <v>0.3783778548240662</v>
+        <v>0.473314106464386</v>
       </c>
       <c r="W102" t="n">
-        <v>0.0003033938992302865</v>
+        <v>0.006009047385305166</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4019348621368408</v>
       </c>
       <c r="V103" t="n">
-        <v>0.390147477388382</v>
+        <v>0.9340413212776184</v>
       </c>
       <c r="W103" t="n">
-        <v>0.0001389424433000386</v>
+        <v>0.2831372916698456</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4170160293579102</v>
       </c>
       <c r="V104" t="n">
-        <v>0.5017546415328979</v>
+        <v>0.4878273010253906</v>
       </c>
       <c r="W104" t="n">
-        <v>0.007180632557719946</v>
+        <v>0.005014236085116863</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4046769142150879</v>
       </c>
       <c r="V105" t="n">
-        <v>0.4706680178642273</v>
+        <v>0.8754220604896545</v>
       </c>
       <c r="W105" t="n">
-        <v>0.004354825709015131</v>
+        <v>0.2216009944677353</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3871309757232666</v>
       </c>
       <c r="V106" t="n">
-        <v>0.3788443207740784</v>
+        <v>0.9063064455986023</v>
       </c>
       <c r="W106" t="n">
-        <v>6.866864714538679e-05</v>
+        <v>0.2695431709289551</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3858580589294434</v>
       </c>
       <c r="V107" t="n">
-        <v>0.5517270565032959</v>
+        <v>0.5099948644638062</v>
       </c>
       <c r="W107" t="n">
-        <v>0.02751252427697182</v>
+        <v>0.01540994644165039</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3886368274688721</v>
       </c>
       <c r="V108" t="n">
-        <v>0.6437066793441772</v>
+        <v>0.5052406191825867</v>
       </c>
       <c r="W108" t="n">
-        <v>0.06506063044071198</v>
+        <v>0.01359644439071417</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3902909755706787</v>
       </c>
       <c r="V109" t="n">
-        <v>0.5712623596191406</v>
+        <v>0.4694568514823914</v>
       </c>
       <c r="W109" t="n">
-        <v>0.03275064006447792</v>
+        <v>0.006267236080020666</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3967969417572021</v>
       </c>
       <c r="V110" t="n">
-        <v>0.5535465478897095</v>
+        <v>0.9083085656166077</v>
       </c>
       <c r="W110" t="n">
-        <v>0.02457043901085854</v>
+        <v>0.2616441547870636</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3925771713256836</v>
       </c>
       <c r="V111" t="n">
-        <v>0.4641658961772919</v>
+        <v>0.8968508839607239</v>
       </c>
       <c r="W111" t="n">
-        <v>0.005124945659190416</v>
+        <v>0.2542919814586639</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4073779582977295</v>
       </c>
       <c r="V112" t="n">
-        <v>0.6256434917449951</v>
+        <v>0.9158057570457458</v>
       </c>
       <c r="W112" t="n">
-        <v>0.04763984307646751</v>
+        <v>0.2584988176822662</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3933038711547852</v>
       </c>
       <c r="V113" t="n">
-        <v>0.6241047382354736</v>
+        <v>0.5094527006149292</v>
       </c>
       <c r="W113" t="n">
-        <v>0.05326903983950615</v>
+        <v>0.01349055022001266</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.4415280818939209</v>
       </c>
       <c r="V114" t="n">
-        <v>0.5687457323074341</v>
+        <v>0.4942032098770142</v>
       </c>
       <c r="W114" t="n">
-        <v>0.01618432998657227</v>
+        <v>0.002774669090285897</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3913650512695312</v>
       </c>
       <c r="V115" t="n">
-        <v>0.6209926605224609</v>
+        <v>0.4864212870597839</v>
       </c>
       <c r="W115" t="n">
-        <v>0.05272883921861649</v>
+        <v>0.009035687893629074</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3902349472045898</v>
       </c>
       <c r="V116" t="n">
-        <v>0.4356837570667267</v>
+        <v>0.5813810229301453</v>
       </c>
       <c r="W116" t="n">
-        <v>0.002065594308078289</v>
+        <v>0.03653682395815849</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3876869678497314</v>
       </c>
       <c r="V117" t="n">
-        <v>0.4867736101150513</v>
+        <v>0.5243985056877136</v>
       </c>
       <c r="W117" t="n">
-        <v>0.009818162769079208</v>
+        <v>0.01869004406034946</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.3969278335571289</v>
       </c>
       <c r="V118" t="n">
-        <v>0.8231731653213501</v>
+        <v>0.8967066407203674</v>
       </c>
       <c r="W118" t="n">
-        <v>0.1816850900650024</v>
+        <v>0.2497788518667221</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3907389640808105</v>
       </c>
       <c r="V119" t="n">
-        <v>0.7337663173675537</v>
+        <v>0.4943057298660278</v>
       </c>
       <c r="W119" t="n">
-        <v>0.1176677644252777</v>
+        <v>0.01072607468813658</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4608781337738037</v>
       </c>
       <c r="V120" t="n">
-        <v>0.5686811208724976</v>
+        <v>0.5301293134689331</v>
       </c>
       <c r="W120" t="n">
-        <v>0.01162148360162973</v>
+        <v>0.004795725923031569</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3917598724365234</v>
       </c>
       <c r="V121" t="n">
-        <v>0.5533048510551453</v>
+        <v>0.4954448938369751</v>
       </c>
       <c r="W121" t="n">
-        <v>0.02609677985310555</v>
+        <v>0.01075058337301016</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8694329261779785</v>
       </c>
       <c r="V122" t="n">
-        <v>0.4360244274139404</v>
+        <v>0.50746750831604</v>
       </c>
       <c r="W122" t="n">
-        <v>0.187842920422554</v>
+        <v>0.1310189664363861</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9332039356231689</v>
       </c>
       <c r="V123" t="n">
-        <v>0.4582839906215668</v>
+        <v>0.4881331920623779</v>
       </c>
       <c r="W123" t="n">
-        <v>0.2255489528179169</v>
+        <v>0.1980879604816437</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8862729072570801</v>
       </c>
       <c r="V124" t="n">
-        <v>0.4588357210159302</v>
+        <v>0.5527406930923462</v>
       </c>
       <c r="W124" t="n">
-        <v>0.1827025413513184</v>
+        <v>0.1112437397241592</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8854210376739502</v>
       </c>
       <c r="V125" t="n">
-        <v>0.6240432262420654</v>
+        <v>0.4916983246803284</v>
       </c>
       <c r="W125" t="n">
-        <v>0.06831835955381393</v>
+        <v>0.1550175696611404</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.9433610439300537</v>
       </c>
       <c r="V126" t="n">
-        <v>0.4535786509513855</v>
+        <v>0.4847760200500488</v>
       </c>
       <c r="W126" t="n">
-        <v>0.2398867905139923</v>
+        <v>0.2103002220392227</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.9158749580383301</v>
       </c>
       <c r="V127" t="n">
-        <v>0.6195765733718872</v>
+        <v>0.8700624108314514</v>
       </c>
       <c r="W127" t="n">
-        <v>0.08779273182153702</v>
+        <v>0.002098789438605309</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.924774169921875</v>
       </c>
       <c r="V128" t="n">
-        <v>0.6584680080413818</v>
+        <v>0.5300434827804565</v>
       </c>
       <c r="W128" t="n">
-        <v>0.070918969810009</v>
+        <v>0.1558123081922531</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8985629081726074</v>
       </c>
       <c r="V129" t="n">
-        <v>0.8187210559844971</v>
+        <v>0.4821067452430725</v>
       </c>
       <c r="W129" t="n">
-        <v>0.0063747214153409</v>
+        <v>0.1734357327222824</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.9081180095672607</v>
       </c>
       <c r="V130" t="n">
-        <v>0.5481818318367004</v>
+        <v>0.5034940838813782</v>
       </c>
       <c r="W130" t="n">
-        <v>0.1295540481805801</v>
+        <v>0.1637205183506012</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8986530303955078</v>
       </c>
       <c r="V131" t="n">
-        <v>0.4362451732158661</v>
+        <v>0.5238036513328552</v>
       </c>
       <c r="W131" t="n">
-        <v>0.2138210237026215</v>
+        <v>0.1405120640993118</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.9525179862976074</v>
       </c>
       <c r="V132" t="n">
-        <v>0.6340599060058594</v>
+        <v>0.5299402475357056</v>
       </c>
       <c r="W132" t="n">
-        <v>0.1014155521988869</v>
+        <v>0.1785719394683838</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8971390724182129</v>
       </c>
       <c r="V133" t="n">
-        <v>0.7337785959243774</v>
+        <v>0.8812772035598755</v>
       </c>
       <c r="W133" t="n">
-        <v>0.0266866460442543</v>
+        <v>0.0002515988890081644</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8590140342712402</v>
       </c>
       <c r="V134" t="n">
-        <v>0.4360238015651703</v>
+        <v>0.8976828455924988</v>
       </c>
       <c r="W134" t="n">
-        <v>0.1789207309484482</v>
+        <v>0.001495276927016675</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8811190128326416</v>
       </c>
       <c r="V135" t="n">
-        <v>0.6190664768218994</v>
+        <v>0.5300536751747131</v>
       </c>
       <c r="W135" t="n">
-        <v>0.06867153197526932</v>
+        <v>0.1232468709349632</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.9183058738708496</v>
       </c>
       <c r="V136" t="n">
-        <v>0.8231332302093506</v>
+        <v>0.5146868228912354</v>
       </c>
       <c r="W136" t="n">
-        <v>0.009057831950485706</v>
+        <v>0.1629083454608917</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8861439228057861</v>
       </c>
       <c r="V137" t="n">
-        <v>0.4663760364055634</v>
+        <v>0.9307881593704224</v>
       </c>
       <c r="W137" t="n">
-        <v>0.1762050837278366</v>
+        <v>0.001993107842281461</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8654730319976807</v>
       </c>
       <c r="V138" t="n">
-        <v>0.8164882659912109</v>
+        <v>0.8823708891868591</v>
       </c>
       <c r="W138" t="n">
-        <v>0.002399507211521268</v>
+        <v>0.0002855375641956925</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8683140277862549</v>
       </c>
       <c r="V139" t="n">
-        <v>0.4584724307060242</v>
+        <v>0.4874287843704224</v>
       </c>
       <c r="W139" t="n">
-        <v>0.167970135807991</v>
+        <v>0.1450735628604889</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.9110348224639893</v>
       </c>
       <c r="V140" t="n">
-        <v>0.6213923692703247</v>
+        <v>0.5300284624099731</v>
       </c>
       <c r="W140" t="n">
-        <v>0.08389274775981903</v>
+        <v>0.1451658457517624</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8654930591583252</v>
       </c>
       <c r="V141" t="n">
-        <v>0.5506994724273682</v>
+        <v>0.5804688334465027</v>
       </c>
       <c r="W141" t="n">
-        <v>0.09909500181674957</v>
+        <v>0.08123880624771118</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5283851623535156</v>
       </c>
       <c r="V142" t="n">
-        <v>0.5526103377342224</v>
+        <v>0.95937180519104</v>
       </c>
       <c r="W142" t="n">
-        <v>0.0005868591251783073</v>
+        <v>0.1857494860887527</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5162608623504639</v>
       </c>
       <c r="V143" t="n">
-        <v>0.4552138149738312</v>
+        <v>0.5067660212516785</v>
       </c>
       <c r="W143" t="n">
-        <v>0.003726741997525096</v>
+        <v>9.015201067086309e-05</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5152502059936523</v>
       </c>
       <c r="V144" t="n">
-        <v>0.7471864223480225</v>
+        <v>0.4870916604995728</v>
       </c>
       <c r="W144" t="n">
-        <v>0.05379441007971764</v>
+        <v>0.0007929037092253566</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5679008960723877</v>
       </c>
       <c r="V145" t="n">
-        <v>0.6585533618927002</v>
+        <v>0.5299549698829651</v>
       </c>
       <c r="W145" t="n">
-        <v>0.008217869326472282</v>
+        <v>0.001439893268980086</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5219681262969971</v>
       </c>
       <c r="V146" t="n">
-        <v>0.3801888823509216</v>
+        <v>0.9600958228111267</v>
       </c>
       <c r="W146" t="n">
-        <v>0.02010135352611542</v>
+        <v>0.1919558793306351</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5263879299163818</v>
       </c>
       <c r="V147" t="n">
-        <v>0.4729442894458771</v>
+        <v>0.4725927114486694</v>
       </c>
       <c r="W147" t="n">
-        <v>0.002856222679838538</v>
+        <v>0.00289392564445734</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5181560516357422</v>
       </c>
       <c r="V148" t="n">
-        <v>0.4575503170490265</v>
+        <v>0.483148455619812</v>
       </c>
       <c r="W148" t="n">
-        <v>0.003673054976388812</v>
+        <v>0.001225531799718738</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5164768695831299</v>
       </c>
       <c r="V149" t="n">
-        <v>0.4356208145618439</v>
+        <v>0.4946776032447815</v>
       </c>
       <c r="W149" t="n">
-        <v>0.006537701468914747</v>
+        <v>0.0004752080130856484</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5436279773712158</v>
       </c>
       <c r="V150" t="n">
-        <v>0.5615204572677612</v>
+        <v>0.5524746775627136</v>
       </c>
       <c r="W150" t="n">
-        <v>0.0003201408253517002</v>
+        <v>7.826410728739575e-05</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5168299674987793</v>
       </c>
       <c r="V151" t="n">
-        <v>0.6847788095474243</v>
+        <v>0.4997066855430603</v>
       </c>
       <c r="W151" t="n">
-        <v>0.02820681408047676</v>
+        <v>0.0002932067727670074</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5204119682312012</v>
       </c>
       <c r="V152" t="n">
-        <v>0.4644940793514252</v>
+        <v>0.5057553052902222</v>
       </c>
       <c r="W152" t="n">
-        <v>0.003126810304820538</v>
+        <v>0.0002148177736671641</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5157630443572998</v>
       </c>
       <c r="V153" t="n">
-        <v>0.4579397141933441</v>
+        <v>0.505530059337616</v>
       </c>
       <c r="W153" t="n">
-        <v>0.003343537449836731</v>
+        <v>0.0001047139812726527</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.512343168258667</v>
       </c>
       <c r="V154" t="n">
-        <v>0.6210951805114746</v>
+        <v>0.8663619160652161</v>
       </c>
       <c r="W154" t="n">
-        <v>0.01182700041681528</v>
+        <v>0.1253292709589005</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5198540687561035</v>
       </c>
       <c r="V155" t="n">
-        <v>0.3819113075733185</v>
+        <v>0.5262656807899475</v>
       </c>
       <c r="W155" t="n">
-        <v>0.0190282054245472</v>
+        <v>4.110876761842519e-05</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5411078929901123</v>
       </c>
       <c r="V156" t="n">
-        <v>0.4962058663368225</v>
+        <v>0.5087224245071411</v>
       </c>
       <c r="W156" t="n">
-        <v>0.002016192069277167</v>
+        <v>0.001048818579874933</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.534365177154541</v>
       </c>
       <c r="V157" t="n">
-        <v>0.8163976669311523</v>
+        <v>0.9348058104515076</v>
       </c>
       <c r="W157" t="n">
-        <v>0.07954232394695282</v>
+        <v>0.1603527069091797</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5194699764251709</v>
       </c>
       <c r="V158" t="n">
-        <v>0.4576936960220337</v>
+        <v>0.8759691119194031</v>
       </c>
       <c r="W158" t="n">
-        <v>0.003816308919340372</v>
+        <v>0.1270916312932968</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5143251419067383</v>
       </c>
       <c r="V159" t="n">
-        <v>0.4577591419219971</v>
+        <v>0.9258813261985779</v>
       </c>
       <c r="W159" t="n">
-        <v>0.003199712373316288</v>
+        <v>0.1693784892559052</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5204489231109619</v>
       </c>
       <c r="V160" t="n">
-        <v>0.4553817808628082</v>
+        <v>0.5808442234992981</v>
       </c>
       <c r="W160" t="n">
-        <v>0.00423373281955719</v>
+        <v>0.003647592384368181</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5761349201202393</v>
       </c>
       <c r="V161" t="n">
-        <v>0.4360179901123047</v>
+        <v>0.4937983155250549</v>
       </c>
       <c r="W161" t="n">
-        <v>0.01963275484740734</v>
+        <v>0.00677931634709239</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3901698589324951</v>
       </c>
       <c r="V162" t="n">
-        <v>0.6839810609817505</v>
+        <v>0.4878128170967102</v>
       </c>
       <c r="W162" t="n">
-        <v>0.0863250195980072</v>
+        <v>0.009534147568047047</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3901560306549072</v>
       </c>
       <c r="V163" t="n">
-        <v>0.6278610229492188</v>
+        <v>0.9476140141487122</v>
       </c>
       <c r="W163" t="n">
-        <v>0.05650366470217705</v>
+        <v>0.3107593953609467</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3911230564117432</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4558286666870117</v>
+        <v>0.5069920420646667</v>
       </c>
       <c r="W164" t="n">
-        <v>0.004186816047877073</v>
+        <v>0.01342562213540077</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3886470794677734</v>
       </c>
       <c r="V165" t="n">
-        <v>0.5160707235336304</v>
+        <v>0.5967627763748169</v>
       </c>
       <c r="W165" t="n">
-        <v>0.01623678579926491</v>
+        <v>0.04331214353442192</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.390347957611084</v>
       </c>
       <c r="V166" t="n">
-        <v>0.436027318239212</v>
+        <v>0.580622136592865</v>
       </c>
       <c r="W166" t="n">
-        <v>0.00208660401403904</v>
+        <v>0.0362042635679245</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3928561210632324</v>
       </c>
       <c r="V167" t="n">
-        <v>0.4356054365634918</v>
+        <v>0.4886267185211182</v>
       </c>
       <c r="W167" t="n">
-        <v>0.001827504020184278</v>
+        <v>0.009172007441520691</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3899259567260742</v>
       </c>
       <c r="V168" t="n">
-        <v>0.6241402626037598</v>
+        <v>0.494131326675415</v>
       </c>
       <c r="W168" t="n">
-        <v>0.05485634133219719</v>
+        <v>0.01085875928401947</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3937020301818848</v>
       </c>
       <c r="V169" t="n">
-        <v>0.8160817623138428</v>
+        <v>0.4722903966903687</v>
       </c>
       <c r="W169" t="n">
-        <v>0.1784046441316605</v>
+        <v>0.006176131311804056</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.394974946975708</v>
       </c>
       <c r="V170" t="n">
-        <v>0.4584780037403107</v>
+        <v>0.491216778755188</v>
       </c>
       <c r="W170" t="n">
-        <v>0.004032638389617205</v>
+        <v>0.009262490086257458</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.389523983001709</v>
       </c>
       <c r="V171" t="n">
-        <v>0.6255437135696411</v>
+        <v>0.500163197517395</v>
       </c>
       <c r="W171" t="n">
-        <v>0.05570531263947487</v>
+        <v>0.01224103569984436</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3925371170043945</v>
       </c>
       <c r="V172" t="n">
-        <v>0.561543881893158</v>
+        <v>0.5143804550170898</v>
       </c>
       <c r="W172" t="n">
-        <v>0.02856328710913658</v>
+        <v>0.01484579872339964</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3911850452423096</v>
       </c>
       <c r="V173" t="n">
-        <v>0.4577381312847137</v>
+        <v>0.4792743921279907</v>
       </c>
       <c r="W173" t="n">
-        <v>0.004429313354194164</v>
+        <v>0.007759733125567436</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.3924310207366943</v>
       </c>
       <c r="V174" t="n">
-        <v>0.6190383434295654</v>
+        <v>0.4870610237121582</v>
       </c>
       <c r="W174" t="n">
-        <v>0.05135088041424751</v>
+        <v>0.008954837918281555</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3935651779174805</v>
       </c>
       <c r="V175" t="n">
-        <v>0.4761776030063629</v>
+        <v>0.5017350316047668</v>
       </c>
       <c r="W175" t="n">
-        <v>0.006824812851846218</v>
+        <v>0.01170071680098772</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3920648097991943</v>
       </c>
       <c r="V176" t="n">
-        <v>0.4203605949878693</v>
+        <v>0.9003646373748779</v>
       </c>
       <c r="W176" t="n">
-        <v>0.0008006514399312437</v>
+        <v>0.2583687007427216</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4027659893035889</v>
       </c>
       <c r="V177" t="n">
-        <v>0.4535927176475525</v>
+        <v>0.5830147266387939</v>
       </c>
       <c r="W177" t="n">
-        <v>0.002583356341347098</v>
+        <v>0.03248960897326469</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3918790817260742</v>
       </c>
       <c r="V178" t="n">
-        <v>0.551541268825531</v>
+        <v>0.5053187608718872</v>
       </c>
       <c r="W178" t="n">
-        <v>0.02549201436340809</v>
+        <v>0.01286856085062027</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3914790153503418</v>
       </c>
       <c r="V179" t="n">
-        <v>0.6880613565444946</v>
+        <v>0.5007299780845642</v>
       </c>
       <c r="W179" t="n">
-        <v>0.08796108514070511</v>
+        <v>0.01193577330559492</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.4441111087799072</v>
       </c>
       <c r="V180" t="n">
-        <v>0.4757482409477234</v>
+        <v>0.4706491231918335</v>
       </c>
       <c r="W180" t="n">
-        <v>0.001000908087007701</v>
+        <v>0.0007042661891318858</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4043080806732178</v>
       </c>
       <c r="V181" t="n">
-        <v>0.6239811182022095</v>
+        <v>0.4710327982902527</v>
       </c>
       <c r="W181" t="n">
-        <v>0.04825624451041222</v>
+        <v>0.004452188033610582</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8708980083465576</v>
       </c>
       <c r="V182" t="n">
-        <v>0.5235501527786255</v>
+        <v>0.4973865747451782</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1206505298614502</v>
+        <v>0.1395107954740524</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9080779552459717</v>
       </c>
       <c r="V183" t="n">
-        <v>0.5521078109741211</v>
+        <v>0.4883173704147339</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1267147362232208</v>
+        <v>0.1761989444494247</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8915300369262695</v>
       </c>
       <c r="V184" t="n">
-        <v>0.4731965661048889</v>
+        <v>0.4913246631622314</v>
       </c>
       <c r="W184" t="n">
-        <v>0.1750028878450394</v>
+        <v>0.1601643413305283</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8842980861663818</v>
       </c>
       <c r="V185" t="n">
-        <v>0.4360113441944122</v>
+        <v>0.4903322458267212</v>
       </c>
       <c r="W185" t="n">
-        <v>0.2009610086679459</v>
+        <v>0.1552090793848038</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8623919486999512</v>
       </c>
       <c r="V186" t="n">
-        <v>0.6245107650756836</v>
+        <v>0.9607370495796204</v>
       </c>
       <c r="W186" t="n">
-        <v>0.05658745765686035</v>
+        <v>0.009671758860349655</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.867523193359375</v>
       </c>
       <c r="V187" t="n">
-        <v>0.618610143661499</v>
+        <v>0.4876852631568909</v>
       </c>
       <c r="W187" t="n">
-        <v>0.0619577057659626</v>
+        <v>0.1442768573760986</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.895380973815918</v>
       </c>
       <c r="V188" t="n">
-        <v>0.551807165145874</v>
+        <v>0.4795447587966919</v>
       </c>
       <c r="W188" t="n">
-        <v>0.1180429607629776</v>
+        <v>0.1729197651147842</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8954479694366455</v>
       </c>
       <c r="V189" t="n">
-        <v>0.4578924179077148</v>
+        <v>0.4962140917778015</v>
       </c>
       <c r="W189" t="n">
-        <v>0.1914548575878143</v>
+        <v>0.1593876928091049</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8653080463409424</v>
       </c>
       <c r="V190" t="n">
-        <v>0.5515128374099731</v>
+        <v>0.4896194934844971</v>
       </c>
       <c r="W190" t="n">
-        <v>0.09846743196249008</v>
+        <v>0.1411418914794922</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8650147914886475</v>
       </c>
       <c r="V191" t="n">
-        <v>0.5523611307144165</v>
+        <v>0.4639202356338501</v>
       </c>
       <c r="W191" t="n">
-        <v>0.09775231033563614</v>
+        <v>0.1608768403530121</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.9160969257354736</v>
       </c>
       <c r="V192" t="n">
-        <v>0.4641267657279968</v>
+        <v>0.9020624756813049</v>
       </c>
       <c r="W192" t="n">
-        <v>0.2042770236730576</v>
+        <v>0.0001969657896552235</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8731458187103271</v>
       </c>
       <c r="V193" t="n">
-        <v>0.6241397857666016</v>
+        <v>0.4831438660621643</v>
       </c>
       <c r="W193" t="n">
-        <v>0.06200400367379189</v>
+        <v>0.1521015167236328</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8641760349273682</v>
       </c>
       <c r="V194" t="n">
-        <v>0.6258492469787598</v>
+        <v>0.4891105890274048</v>
       </c>
       <c r="W194" t="n">
-        <v>0.05679965764284134</v>
+        <v>0.1406740844249725</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8670120239257812</v>
       </c>
       <c r="V195" t="n">
-        <v>0.6238876581192017</v>
+        <v>0.5299690961837769</v>
       </c>
       <c r="W195" t="n">
-        <v>0.05910945683717728</v>
+        <v>0.1135979369282722</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.9181110858917236</v>
       </c>
       <c r="V196" t="n">
-        <v>0.6530184745788574</v>
+        <v>0.8968501687049866</v>
       </c>
       <c r="W196" t="n">
-        <v>0.07027409225702286</v>
+        <v>0.0004520266084000468</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.860637903213501</v>
       </c>
       <c r="V197" t="n">
-        <v>0.4356223046779633</v>
+        <v>0.9093100428581238</v>
       </c>
       <c r="W197" t="n">
-        <v>0.1806382536888123</v>
+        <v>0.002368977293372154</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8655040264129639</v>
       </c>
       <c r="V198" t="n">
-        <v>0.6602040529251099</v>
+        <v>0.4877084493637085</v>
       </c>
       <c r="W198" t="n">
-        <v>0.04214807972311974</v>
+        <v>0.1427294909954071</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8663921356201172</v>
       </c>
       <c r="V199" t="n">
-        <v>0.7368419170379639</v>
+        <v>0.4834024310112</v>
       </c>
       <c r="W199" t="n">
-        <v>0.01678325980901718</v>
+        <v>0.1466811150312424</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.9163141250610352</v>
       </c>
       <c r="V200" t="n">
-        <v>0.5767316818237305</v>
+        <v>0.9626503586769104</v>
       </c>
       <c r="W200" t="n">
-        <v>0.1153162345290184</v>
+        <v>0.002147046616300941</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8810501098632812</v>
       </c>
       <c r="V201" t="n">
-        <v>0.5041597485542297</v>
+        <v>0.8991644978523254</v>
       </c>
       <c r="W201" t="n">
-        <v>0.1420463472604752</v>
+        <v>0.0003281310491729528</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5188970565795898</v>
       </c>
       <c r="V202" t="n">
-        <v>0.6890506744384766</v>
+        <v>0.4886306524276733</v>
       </c>
       <c r="W202" t="n">
-        <v>0.02895225398242474</v>
+        <v>0.0009160552290268242</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5243270397186279</v>
       </c>
       <c r="V203" t="n">
-        <v>0.4360229969024658</v>
+        <v>0.5147560238838196</v>
       </c>
       <c r="W203" t="n">
-        <v>0.007797603961080313</v>
+        <v>9.16043427423574e-05</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5216288566589355</v>
       </c>
       <c r="V204" t="n">
-        <v>0.57613205909729</v>
+        <v>0.5011894702911377</v>
       </c>
       <c r="W204" t="n">
-        <v>0.002970599103718996</v>
+        <v>0.000417768518673256</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5708370208740234</v>
       </c>
       <c r="V205" t="n">
-        <v>0.6570550203323364</v>
+        <v>0.5071408152580261</v>
       </c>
       <c r="W205" t="n">
-        <v>0.0074335434474051</v>
+        <v>0.004057206679135561</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5193920135498047</v>
       </c>
       <c r="V206" t="n">
-        <v>0.4749151468276978</v>
+        <v>0.5065071582794189</v>
       </c>
       <c r="W206" t="n">
-        <v>0.001978191779926419</v>
+        <v>0.0001660194975556806</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5160720348358154</v>
       </c>
       <c r="V207" t="n">
-        <v>0.5659756064414978</v>
+        <v>0.4704751372337341</v>
       </c>
       <c r="W207" t="n">
-        <v>0.002490366343408823</v>
+        <v>0.002079077064990997</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5146119594573975</v>
       </c>
       <c r="V208" t="n">
-        <v>0.5474125146865845</v>
+        <v>0.5530624389648438</v>
       </c>
       <c r="W208" t="n">
-        <v>0.001075876411050558</v>
+        <v>0.00147843942977488</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5180521011352539</v>
       </c>
       <c r="V209" t="n">
-        <v>0.6566433906555176</v>
+        <v>1.039626121520996</v>
       </c>
       <c r="W209" t="n">
-        <v>0.01920754462480545</v>
+        <v>0.2720394730567932</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5169191360473633</v>
       </c>
       <c r="V210" t="n">
-        <v>0.4543018043041229</v>
+        <v>0.5065099596977234</v>
       </c>
       <c r="W210" t="n">
-        <v>0.003920930437743664</v>
+        <v>0.0001083509487216361</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.523500919342041</v>
       </c>
       <c r="V211" t="n">
-        <v>0.473930835723877</v>
+        <v>0.8677179217338562</v>
       </c>
       <c r="W211" t="n">
-        <v>0.002457193098962307</v>
+        <v>0.1184853464365005</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5210540294647217</v>
       </c>
       <c r="V212" t="n">
-        <v>0.3900977373123169</v>
+        <v>0.9289848208427429</v>
       </c>
       <c r="W212" t="n">
-        <v>0.0171495508402586</v>
+        <v>0.1664075255393982</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5213871002197266</v>
       </c>
       <c r="V213" t="n">
-        <v>0.624763011932373</v>
+        <v>0.8765239715576172</v>
       </c>
       <c r="W213" t="n">
-        <v>0.01068657916039228</v>
+        <v>0.1261221915483475</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5156271457672119</v>
       </c>
       <c r="V214" t="n">
-        <v>0.4357438981533051</v>
+        <v>0.5297983288764954</v>
       </c>
       <c r="W214" t="n">
-        <v>0.006381333339959383</v>
+        <v>0.0002008224255405366</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5241148471832275</v>
       </c>
       <c r="V215" t="n">
-        <v>0.4538178741931915</v>
+        <v>0.4690732359886169</v>
       </c>
       <c r="W215" t="n">
-        <v>0.004941664636135101</v>
+        <v>0.003029579063877463</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5735630989074707</v>
       </c>
       <c r="V216" t="n">
-        <v>0.551414966583252</v>
+        <v>0.9008482694625854</v>
       </c>
       <c r="W216" t="n">
-        <v>0.0004905397654511034</v>
+        <v>0.1071155816316605</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5200839042663574</v>
       </c>
       <c r="V217" t="n">
-        <v>0.5551027059555054</v>
+        <v>0.4887071847915649</v>
       </c>
       <c r="W217" t="n">
-        <v>0.001226316438987851</v>
+        <v>0.0009844985324889421</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5200119018554688</v>
       </c>
       <c r="V218" t="n">
-        <v>0.4360273480415344</v>
+        <v>0.5061672329902649</v>
       </c>
       <c r="W218" t="n">
-        <v>0.0070534055121243</v>
+        <v>0.0001916748587973416</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5200319290161133</v>
       </c>
       <c r="V219" t="n">
-        <v>0.7365775108337402</v>
+        <v>0.4894160032272339</v>
       </c>
       <c r="W219" t="n">
-        <v>0.04689198732376099</v>
+        <v>0.0009373349021188915</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5225260257720947</v>
       </c>
       <c r="V220" t="n">
-        <v>0.6046534776687622</v>
+        <v>0.4707043766975403</v>
       </c>
       <c r="W220" t="n">
-        <v>0.006744918413460255</v>
+        <v>0.002685483312234282</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5201749801635742</v>
       </c>
       <c r="V221" t="n">
-        <v>0.6213033199310303</v>
+        <v>0.5116955041885376</v>
       </c>
       <c r="W221" t="n">
-        <v>0.01022694073617458</v>
+        <v>7.190151518443599e-05</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3918840885162354</v>
       </c>
       <c r="V222" t="n">
-        <v>0.4551306962966919</v>
+        <v>0.4910359978675842</v>
       </c>
       <c r="W222" t="n">
-        <v>0.004000133369117975</v>
+        <v>0.009831100702285767</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3914821147918701</v>
       </c>
       <c r="V223" t="n">
-        <v>0.6237491369247437</v>
+        <v>0.4911136031150818</v>
       </c>
       <c r="W223" t="n">
-        <v>0.05394797027111053</v>
+        <v>0.009926433674991131</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.393373966217041</v>
       </c>
       <c r="V224" t="n">
-        <v>0.4542677104473114</v>
+        <v>0.9278044104576111</v>
       </c>
       <c r="W224" t="n">
-        <v>0.003708048025146127</v>
+        <v>0.2856158912181854</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3867371082305908</v>
       </c>
       <c r="V225" t="n">
-        <v>0.4660579562187195</v>
+        <v>0.4914106130599976</v>
       </c>
       <c r="W225" t="n">
-        <v>0.006291796918958426</v>
+        <v>0.01095654256641865</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3925538063049316</v>
       </c>
       <c r="V226" t="n">
-        <v>0.8119727373123169</v>
+        <v>0.8939242362976074</v>
       </c>
       <c r="W226" t="n">
-        <v>0.1759122461080551</v>
+        <v>0.2513723075389862</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3933191299438477</v>
       </c>
       <c r="V227" t="n">
-        <v>0.4550628066062927</v>
+        <v>0.5805116891860962</v>
       </c>
       <c r="W227" t="n">
-        <v>0.003812281647697091</v>
+        <v>0.03504105284810066</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3964509963989258</v>
       </c>
       <c r="V228" t="n">
-        <v>0.4422093331813812</v>
+        <v>0.9249919056892395</v>
       </c>
       <c r="W228" t="n">
-        <v>0.002093825489282608</v>
+        <v>0.2793554961681366</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.3955240249633789</v>
       </c>
       <c r="V229" t="n">
-        <v>0.6851100921630859</v>
+        <v>0.4793773889541626</v>
       </c>
       <c r="W229" t="n">
-        <v>0.08386009186506271</v>
+        <v>0.007031386718153954</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3917667865753174</v>
       </c>
       <c r="V230" t="n">
-        <v>0.474732518196106</v>
+        <v>0.599231481552124</v>
       </c>
       <c r="W230" t="n">
-        <v>0.006883312482386827</v>
+        <v>0.04304159805178642</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3931410312652588</v>
       </c>
       <c r="V231" t="n">
-        <v>0.5066593885421753</v>
+        <v>0.4932926297187805</v>
       </c>
       <c r="W231" t="n">
-        <v>0.01288641709834337</v>
+        <v>0.01003034226596355</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3918888568878174</v>
       </c>
       <c r="V232" t="n">
-        <v>0.4363065361976624</v>
+        <v>0.8881715536117554</v>
       </c>
       <c r="W232" t="n">
-        <v>0.001972930273041129</v>
+        <v>0.2462965101003647</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.4022190570831299</v>
       </c>
       <c r="V233" t="n">
-        <v>0.5067566633224487</v>
+        <v>0.5050009489059448</v>
       </c>
       <c r="W233" t="n">
-        <v>0.01092811115086079</v>
+        <v>0.01056411769241095</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.4511189460754395</v>
       </c>
       <c r="V234" t="n">
-        <v>0.6605738401412964</v>
+        <v>0.9460764527320862</v>
       </c>
       <c r="W234" t="n">
-        <v>0.04387135431170464</v>
+        <v>0.2449829280376434</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3974401950836182</v>
       </c>
       <c r="V235" t="n">
-        <v>0.4357512891292572</v>
+        <v>0.9568272829055786</v>
       </c>
       <c r="W235" t="n">
-        <v>0.00146773993037641</v>
+        <v>0.3129139244556427</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3959310054779053</v>
       </c>
       <c r="V236" t="n">
-        <v>0.6437778472900391</v>
+        <v>0.4740309715270996</v>
       </c>
       <c r="W236" t="n">
-        <v>0.06142805516719818</v>
+        <v>0.006099604535847902</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.401885986328125</v>
       </c>
       <c r="V237" t="n">
-        <v>0.4536274671554565</v>
+        <v>0.9617494344711304</v>
       </c>
       <c r="W237" t="n">
-        <v>0.002677180804312229</v>
+        <v>0.3134470880031586</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3871839046478271</v>
       </c>
       <c r="V238" t="n">
-        <v>0.5693919658660889</v>
+        <v>0.9205166101455688</v>
       </c>
       <c r="W238" t="n">
-        <v>0.03319977596402168</v>
+        <v>0.2844437658786774</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3878560066223145</v>
       </c>
       <c r="V239" t="n">
-        <v>0.6469850540161133</v>
+        <v>0.9656791090965271</v>
       </c>
       <c r="W239" t="n">
-        <v>0.0671478658914566</v>
+        <v>0.3338795304298401</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.4173870086669922</v>
       </c>
       <c r="V240" t="n">
-        <v>0.7316849231719971</v>
+        <v>0.9156224727630615</v>
       </c>
       <c r="W240" t="n">
-        <v>0.09878318011760712</v>
+        <v>0.2482385784387589</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3921442031860352</v>
       </c>
       <c r="V241" t="n">
-        <v>0.569115161895752</v>
+        <v>0.529806911945343</v>
       </c>
       <c r="W241" t="n">
-        <v>0.03131872043013573</v>
+        <v>0.01895102113485336</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8906509876251221</v>
       </c>
       <c r="V242" t="n">
-        <v>0.4360246360301971</v>
+        <v>0.5811185836791992</v>
       </c>
       <c r="W242" t="n">
-        <v>0.2066851258277893</v>
+        <v>0.09581030905246735</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.9187779426574707</v>
       </c>
       <c r="V243" t="n">
-        <v>0.6570971012115479</v>
+        <v>0.4941641092300415</v>
       </c>
       <c r="W243" t="n">
-        <v>0.06847686320543289</v>
+        <v>0.1802969127893448</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.888840913772583</v>
       </c>
       <c r="V244" t="n">
-        <v>0.4576598405838013</v>
+        <v>0.5086584687232971</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1859171241521835</v>
+        <v>0.1445386856794357</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>1.241029977798462</v>
       </c>
       <c r="V245" t="n">
-        <v>0.480756551027298</v>
+        <v>0.5149027705192566</v>
       </c>
       <c r="W245" t="n">
-        <v>0.5780157446861267</v>
+        <v>0.5272607207298279</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8686280250549316</v>
       </c>
       <c r="V246" t="n">
-        <v>0.6568613052368164</v>
+        <v>0.903343677520752</v>
       </c>
       <c r="W246" t="n">
-        <v>0.04484514519572258</v>
+        <v>0.001205176580697298</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8745489120483398</v>
       </c>
       <c r="V247" t="n">
-        <v>0.458252340555191</v>
+        <v>0.5020726323127747</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1733028292655945</v>
+        <v>0.1387385725975037</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.9256248474121094</v>
       </c>
       <c r="V248" t="n">
-        <v>0.4707243740558624</v>
+        <v>0.4706949591636658</v>
       </c>
       <c r="W248" t="n">
-        <v>0.2069344371557236</v>
+        <v>0.2069611996412277</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8719718456268311</v>
       </c>
       <c r="V249" t="n">
-        <v>0.5730562210083008</v>
+        <v>0.5810366272926331</v>
       </c>
       <c r="W249" t="n">
-        <v>0.08935055136680603</v>
+        <v>0.08464330434799194</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8712148666381836</v>
       </c>
       <c r="V250" t="n">
-        <v>0.6009038686752319</v>
+        <v>0.9053114652633667</v>
       </c>
       <c r="W250" t="n">
-        <v>0.0730680376291275</v>
+        <v>0.001162578002549708</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8764920234680176</v>
       </c>
       <c r="V251" t="n">
-        <v>0.6275705099105835</v>
+        <v>0.8810026049613953</v>
       </c>
       <c r="W251" t="n">
-        <v>0.06196191906929016</v>
+        <v>2.034534554695711e-05</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.9451370239257812</v>
       </c>
       <c r="V252" t="n">
-        <v>0.5654192566871643</v>
+        <v>0.4721933007240295</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1441855877637863</v>
+        <v>0.2236757725477219</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8735978603363037</v>
       </c>
       <c r="V253" t="n">
-        <v>0.7248722314834595</v>
+        <v>0.9156215786933899</v>
       </c>
       <c r="W253" t="n">
-        <v>0.02211931347846985</v>
+        <v>0.00176599295809865</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8669819831848145</v>
       </c>
       <c r="V254" t="n">
-        <v>0.5760806798934937</v>
+        <v>0.9043148756027222</v>
       </c>
       <c r="W254" t="n">
-        <v>0.08462356775999069</v>
+        <v>0.001393744838424027</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8662941455841064</v>
       </c>
       <c r="V255" t="n">
-        <v>0.4576366245746613</v>
+        <v>0.9715211391448975</v>
       </c>
       <c r="W255" t="n">
-        <v>0.1670009642839432</v>
+        <v>0.01107272040098906</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.9190099239349365</v>
       </c>
       <c r="V256" t="n">
-        <v>0.3790062367916107</v>
+        <v>0.4705446362495422</v>
       </c>
       <c r="W256" t="n">
-        <v>0.2916039526462555</v>
+        <v>0.2011211216449738</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8669869899749756</v>
       </c>
       <c r="V257" t="n">
-        <v>0.4360257685184479</v>
+        <v>0.5877035856246948</v>
       </c>
       <c r="W257" t="n">
-        <v>0.1857275813817978</v>
+        <v>0.07799921929836273</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8608980178833008</v>
       </c>
       <c r="V258" t="n">
-        <v>0.6420996189117432</v>
+        <v>0.5141078233718872</v>
       </c>
       <c r="W258" t="n">
-        <v>0.04787274077534676</v>
+        <v>0.1202634423971176</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8737180233001709</v>
       </c>
       <c r="V259" t="n">
-        <v>0.4575155675411224</v>
+        <v>0.9614248871803284</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1732244789600372</v>
+        <v>0.007692493963986635</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.9193201065063477</v>
       </c>
       <c r="V260" t="n">
-        <v>0.4360207617282867</v>
+        <v>0.4796934723854065</v>
       </c>
       <c r="W260" t="n">
-        <v>0.2335782498121262</v>
+        <v>0.1932715773582458</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8791558742523193</v>
       </c>
       <c r="V261" t="n">
-        <v>0.5533381700515747</v>
+        <v>0.5300067663192749</v>
       </c>
       <c r="W261" t="n">
-        <v>0.1061571761965752</v>
+        <v>0.1219050958752632</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5433988571166992</v>
       </c>
       <c r="V262" t="n">
-        <v>0.8119169473648071</v>
+        <v>0.499411940574646</v>
       </c>
       <c r="W262" t="n">
-        <v>0.07210196554660797</v>
+        <v>0.001934848842211068</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5591669082641602</v>
       </c>
       <c r="V263" t="n">
-        <v>0.5545951128005981</v>
+        <v>0.8673442006111145</v>
       </c>
       <c r="W263" t="n">
-        <v>2.090131420118269e-05</v>
+        <v>0.09497324377298355</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5371689796447754</v>
       </c>
       <c r="V264" t="n">
-        <v>0.816550612449646</v>
+        <v>0.4945986270904541</v>
       </c>
       <c r="W264" t="n">
-        <v>0.07805410027503967</v>
+        <v>0.001812234870158136</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5291810035705566</v>
       </c>
       <c r="V265" t="n">
-        <v>0.7538954019546509</v>
+        <v>0.5806712508201599</v>
       </c>
       <c r="W265" t="n">
-        <v>0.05049655959010124</v>
+        <v>0.002651245566084981</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5217339992523193</v>
       </c>
       <c r="V266" t="n">
-        <v>0.4704041182994843</v>
+        <v>0.4943740367889404</v>
       </c>
       <c r="W266" t="n">
-        <v>0.002634756732732058</v>
+        <v>0.0007485675741918385</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5201818943023682</v>
       </c>
       <c r="V267" t="n">
-        <v>0.436014860868454</v>
+        <v>0.4888721704483032</v>
       </c>
       <c r="W267" t="n">
-        <v>0.007084089331328869</v>
+        <v>0.0009802988497540355</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5217471122741699</v>
       </c>
       <c r="V268" t="n">
-        <v>0.4643741250038147</v>
+        <v>0.896791934967041</v>
       </c>
       <c r="W268" t="n">
-        <v>0.003291659755632281</v>
+        <v>0.1406586170196533</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5245940685272217</v>
       </c>
       <c r="V269" t="n">
-        <v>0.5531672239303589</v>
+        <v>0.8984124064445496</v>
       </c>
       <c r="W269" t="n">
-        <v>0.0008164251921698451</v>
+        <v>0.1397401541471481</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5742490291595459</v>
       </c>
       <c r="V270" t="n">
-        <v>0.4420330226421356</v>
+        <v>0.5529642105102539</v>
       </c>
       <c r="W270" t="n">
-        <v>0.01748107187449932</v>
+        <v>0.0004530434962362051</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5239529609680176</v>
       </c>
       <c r="V271" t="n">
-        <v>0.3788739442825317</v>
+        <v>0.9599317908287048</v>
       </c>
       <c r="W271" t="n">
-        <v>0.02104792185127735</v>
+        <v>0.190077543258667</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5398259162902832</v>
       </c>
       <c r="V272" t="n">
-        <v>0.5595355629920959</v>
+        <v>0.5065028071403503</v>
       </c>
       <c r="W272" t="n">
-        <v>0.00038847018731758</v>
+        <v>0.001110429642722011</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5218660831451416</v>
       </c>
       <c r="V273" t="n">
-        <v>0.4363715648651123</v>
+        <v>0.5326905250549316</v>
       </c>
       <c r="W273" t="n">
-        <v>0.007309312466531992</v>
+        <v>0.0001171685435110703</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5298349857330322</v>
       </c>
       <c r="V274" t="n">
-        <v>0.4360882639884949</v>
+        <v>0.5301077961921692</v>
       </c>
       <c r="W274" t="n">
-        <v>0.008788447827100754</v>
+        <v>7.442554306180682e-08</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5179338455200195</v>
       </c>
       <c r="V275" t="n">
-        <v>0.6580631732940674</v>
+        <v>0.5302078127861023</v>
       </c>
       <c r="W275" t="n">
-        <v>0.01963622868061066</v>
+        <v>0.0001506502740085125</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5214970111846924</v>
       </c>
       <c r="V276" t="n">
-        <v>0.5043182373046875</v>
+        <v>0.5092869997024536</v>
       </c>
       <c r="W276" t="n">
-        <v>0.0002951102796941996</v>
+        <v>0.0001490843860665336</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5263538360595703</v>
       </c>
       <c r="V277" t="n">
-        <v>0.8164883852005005</v>
+        <v>0.473970353603363</v>
       </c>
       <c r="W277" t="n">
-        <v>0.08417806029319763</v>
+        <v>0.002744029276072979</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5206100940704346</v>
       </c>
       <c r="V278" t="n">
-        <v>0.5714279413223267</v>
+        <v>0.8995101451873779</v>
       </c>
       <c r="W278" t="n">
-        <v>0.002582453656941652</v>
+        <v>0.1435652524232864</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5247068405151367</v>
       </c>
       <c r="V279" t="n">
-        <v>0.5526690483093262</v>
+        <v>0.4879162311553955</v>
       </c>
       <c r="W279" t="n">
-        <v>0.0007818850572220981</v>
+        <v>0.001353548956103623</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5208921432495117</v>
       </c>
       <c r="V280" t="n">
-        <v>0.5761919021606445</v>
+        <v>0.4938139319419861</v>
       </c>
       <c r="W280" t="n">
-        <v>0.003058063331991434</v>
+        <v>0.0007332295062951744</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5698721408843994</v>
       </c>
       <c r="V281" t="n">
-        <v>0.4755290746688843</v>
+        <v>0.4693461060523987</v>
       </c>
       <c r="W281" t="n">
-        <v>0.008900614455342293</v>
+        <v>0.01010548323392868</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4098048210144043</v>
       </c>
       <c r="V282" t="n">
-        <v>0.4813840687274933</v>
+        <v>0.5230200290679932</v>
       </c>
       <c r="W282" t="n">
-        <v>0.005123588722199202</v>
+        <v>0.0128176836296916</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3982181549072266</v>
       </c>
       <c r="V283" t="n">
-        <v>0.3785330653190613</v>
+        <v>0.4996715784072876</v>
       </c>
       <c r="W283" t="n">
-        <v>0.0003875027468893677</v>
+        <v>0.01029279734939337</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3965189456939697</v>
       </c>
       <c r="V284" t="n">
-        <v>0.4357521533966064</v>
+        <v>0.5326653122901917</v>
       </c>
       <c r="W284" t="n">
-        <v>0.00153924454934895</v>
+        <v>0.01853583380579948</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3984930515289307</v>
       </c>
       <c r="V285" t="n">
-        <v>0.3793536722660065</v>
+        <v>0.5004961490631104</v>
       </c>
       <c r="W285" t="n">
-        <v>0.0003663158277049661</v>
+        <v>0.01040463149547577</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3984510898590088</v>
       </c>
       <c r="V286" t="n">
-        <v>0.4746897518634796</v>
+        <v>0.9136464595794678</v>
       </c>
       <c r="W286" t="n">
-        <v>0.005812333431094885</v>
+        <v>0.2654262781143188</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4460391998291016</v>
       </c>
       <c r="V287" t="n">
-        <v>0.6570440530776978</v>
+        <v>0.9226239323616028</v>
       </c>
       <c r="W287" t="n">
-        <v>0.04452304914593697</v>
+        <v>0.2271330058574677</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4014420509338379</v>
       </c>
       <c r="V288" t="n">
-        <v>0.6212022304534912</v>
+        <v>0.8989017605781555</v>
       </c>
       <c r="W288" t="n">
-        <v>0.04829453676939011</v>
+        <v>0.2474661618471146</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.3982100486755371</v>
       </c>
       <c r="V289" t="n">
-        <v>0.5019413232803345</v>
+        <v>0.915310800075531</v>
       </c>
       <c r="W289" t="n">
-        <v>0.01076017692685127</v>
+        <v>0.2673932015895844</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.4037339687347412</v>
       </c>
       <c r="V290" t="n">
-        <v>0.6585376262664795</v>
+        <v>0.5803032517433167</v>
       </c>
       <c r="W290" t="n">
-        <v>0.06492490321397781</v>
+        <v>0.03117671236395836</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3960211277008057</v>
       </c>
       <c r="V291" t="n">
-        <v>0.5035736560821533</v>
+        <v>0.4888042807579041</v>
       </c>
       <c r="W291" t="n">
-        <v>0.01156754605472088</v>
+        <v>0.008608713746070862</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.3938968181610107</v>
       </c>
       <c r="V292" t="n">
-        <v>0.5545165538787842</v>
+        <v>0.9216449856758118</v>
       </c>
       <c r="W292" t="n">
-        <v>0.02579869888722897</v>
+        <v>0.2785181403160095</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4509978294372559</v>
       </c>
       <c r="V293" t="n">
-        <v>0.4360189139842987</v>
+        <v>0.8825704455375671</v>
       </c>
       <c r="W293" t="n">
-        <v>0.0002243679045932367</v>
+        <v>0.1862549185752869</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3914289474487305</v>
       </c>
       <c r="V294" t="n">
-        <v>0.5011930465698242</v>
+        <v>0.5097766518592834</v>
       </c>
       <c r="W294" t="n">
-        <v>0.01204815786331892</v>
+        <v>0.01400617882609367</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3921470642089844</v>
       </c>
       <c r="V295" t="n">
-        <v>0.4661538004875183</v>
+        <v>0.5057720541954041</v>
       </c>
       <c r="W295" t="n">
-        <v>0.00547699723392725</v>
+        <v>0.0129106380045414</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3929870128631592</v>
       </c>
       <c r="V296" t="n">
-        <v>0.476378470659256</v>
+        <v>0.5054960250854492</v>
       </c>
       <c r="W296" t="n">
-        <v>0.006954135373234749</v>
+        <v>0.01265827752649784</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3941469192504883</v>
       </c>
       <c r="V297" t="n">
-        <v>0.4660023748874664</v>
+        <v>0.8876189589500427</v>
       </c>
       <c r="W297" t="n">
-        <v>0.005163206718862057</v>
+        <v>0.2435146570205688</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3950181007385254</v>
       </c>
       <c r="V298" t="n">
-        <v>0.3823255002498627</v>
+        <v>0.5130848288536072</v>
       </c>
       <c r="W298" t="n">
-        <v>0.0001611021143617108</v>
+        <v>0.01393975224345922</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3963429927825928</v>
       </c>
       <c r="V299" t="n">
-        <v>0.473088413476944</v>
+        <v>0.9325443506240845</v>
       </c>
       <c r="W299" t="n">
-        <v>0.005889859516173601</v>
+        <v>0.2875118851661682</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4352798461914062</v>
       </c>
       <c r="V300" t="n">
-        <v>0.6248958110809326</v>
+        <v>0.4880731701850891</v>
       </c>
       <c r="W300" t="n">
-        <v>0.03595421463251114</v>
+        <v>0.002787135075777769</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3999040126800537</v>
       </c>
       <c r="V301" t="n">
-        <v>0.6185418367385864</v>
+        <v>0.485420286655426</v>
       </c>
       <c r="W301" t="n">
-        <v>0.04780249670147896</v>
+        <v>0.007313033100217581</v>
       </c>
     </row>
     <row r="302" spans="1:23">
